--- a/Datasets/II Semester 2025/Results - Final.xlsx
+++ b/Datasets/II Semester 2025/Results - Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Quesada\Documents\GitHub\eWave\Datasets\II Semester 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eWave\eWave\Datasets\II Semester 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A783E-1875-40B9-BC4D-63626DF5062B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721B0ED1-B23F-4452-AD1D-6301EA8AC62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{067E96B3-EB7F-4CEE-B660-BBE446B0B978}"/>
   </bookViews>
@@ -937,7 +937,7 @@
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,46 +987,84 @@
       <c r="B4" s="3">
         <v>90</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13</v>
+      </c>
       <c r="E4" s="3">
         <v>41</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="F4" s="3">
+        <v>46</v>
+      </c>
+      <c r="G4" s="3">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>120</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="3">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>56</v>
+      </c>
+      <c r="F5" s="3">
+        <v>62</v>
+      </c>
+      <c r="G5" s="3">
+        <v>79</v>
+      </c>
+      <c r="H5" s="3">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>150</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3">
+        <v>27</v>
+      </c>
       <c r="E6" s="3">
         <v>64</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="3">
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
+        <v>88</v>
+      </c>
+      <c r="H6" s="3">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>180</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="3">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3">
+        <v>74</v>
+      </c>
       <c r="F7" s="3">
         <v>90</v>
       </c>
